--- a/biology/Botanique/Charles_Moore_(botaniste)/Charles_Moore_(botaniste).xlsx
+++ b/biology/Botanique/Charles_Moore_(botaniste)/Charles_Moore_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Moore, né à Dundee le 10 mai 1820 et mort à Paddington le 30 avril 1905, est un botaniste britannique d’origine  écossaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles Muir et d’Helen née Rattray. Son frère est le botaniste David Moore (1808-1879), directeur du jardin botanique de Glasnevin, près de Dublin. Charles Moore fait ses études à Dundee et à Dublin. La famille Muir s’installe en Irlande vers 1838 et change alors son patronyme en Moore.
 Charles Moore travaille comme botaniste en Irlande et se forme dans les Jardins botaniques royaux de Kew et à Regent's Park. Grâce à la recommandation de John Lindley (1799-1865) et de John Stevens Henslow (1795-1861), il est nommé directeur du jardin botanique de la colonie de Sydney.
